--- a/stage2_excels/SP/SP_kfold_one.xlsx
+++ b/stage2_excels/SP/SP_kfold_one.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="SP" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,7 +460,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4244409013228664</v>
+        <v>0.4316754236044852</v>
       </c>
     </row>
     <row r="3">
@@ -473,23 +473,101 @@
         <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2334114987248704</v>
+        <v>0.2673878109059736</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>hsv_s_percentile_25</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.2142795717544181</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>hsv_s_percentile_25</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2140528532297742</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>hsv_s_median</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.2091364520396207</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>hsv_s_percentile_25</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2059508786520108</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>hsv_s_percentile_25</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1565612158624592</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>hsv_v_median</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B9" t="n">
         <v>4</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.1077318591825399</v>
+      <c r="C9" t="n">
+        <v>0.094631684266518</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>hsv_h_percentile_75</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.004420281064042597</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>